--- a/src/test/resources/Trello .xlsx
+++ b/src/test/resources/Trello .xlsx
@@ -55,7 +55,7 @@
     <t>TC_01</t>
   </si>
   <si>
-    <t xml:space="preserve">Create board </t>
+    <t>Create boards</t>
   </si>
   <si>
     <t>High</t>
